--- a/Code/Results/Cases/Case_1_155/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_155/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9849509764041349</v>
+        <v>1.040379440627602</v>
       </c>
       <c r="D2">
-        <v>1.031987749646594</v>
+        <v>1.042043250366263</v>
       </c>
       <c r="E2">
-        <v>0.9909885064658559</v>
+        <v>1.038533635975398</v>
       </c>
       <c r="F2">
-        <v>0.960988836286364</v>
+        <v>1.039131590117458</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044775346039025</v>
+        <v>1.041206215823784</v>
       </c>
       <c r="J2">
-        <v>1.007591310833518</v>
+        <v>1.045466364141586</v>
       </c>
       <c r="K2">
-        <v>1.043018730420691</v>
+        <v>1.04482105367315</v>
       </c>
       <c r="L2">
-        <v>1.00257482993743</v>
+        <v>1.04132139708542</v>
       </c>
       <c r="M2">
-        <v>0.9730198094900849</v>
+        <v>1.041917649495794</v>
       </c>
       <c r="N2">
-        <v>1.00902220606724</v>
+        <v>1.046951046295335</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9951288412241118</v>
+        <v>1.042162155873063</v>
       </c>
       <c r="D3">
-        <v>1.037129061578429</v>
+        <v>1.042912896762855</v>
       </c>
       <c r="E3">
-        <v>0.9998099099910246</v>
+        <v>1.040097250559813</v>
       </c>
       <c r="F3">
-        <v>0.9742070083600438</v>
+        <v>1.041551369601292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048435840451144</v>
+        <v>1.041723130406639</v>
       </c>
       <c r="J3">
-        <v>1.015753185568974</v>
+        <v>1.046890516222773</v>
       </c>
       <c r="K3">
-        <v>1.047307927148771</v>
+        <v>1.045501296729258</v>
       </c>
       <c r="L3">
-        <v>1.010445223632205</v>
+        <v>1.042693055424887</v>
       </c>
       <c r="M3">
-        <v>0.9851809113120634</v>
+        <v>1.044143344862835</v>
       </c>
       <c r="N3">
-        <v>1.017195671601001</v>
+        <v>1.04837722083583</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00142290069619</v>
+        <v>1.043310810598504</v>
       </c>
       <c r="D4">
-        <v>1.040323454594669</v>
+        <v>1.043473443725672</v>
       </c>
       <c r="E4">
-        <v>1.005266047011224</v>
+        <v>1.041104226440361</v>
       </c>
       <c r="F4">
-        <v>0.9823692959594467</v>
+        <v>1.043111546096081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050686273340394</v>
+        <v>1.042054381371893</v>
       </c>
       <c r="J4">
-        <v>1.020790278430351</v>
+        <v>1.047806923689169</v>
       </c>
       <c r="K4">
-        <v>1.049958401040291</v>
+        <v>1.045938654614618</v>
       </c>
       <c r="L4">
-        <v>1.01530132827934</v>
+        <v>1.043575351235984</v>
       </c>
       <c r="M4">
-        <v>0.9926852709804634</v>
+        <v>1.045577658461863</v>
       </c>
       <c r="N4">
-        <v>1.022239917712004</v>
+        <v>1.049294929705942</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00400489462443</v>
+        <v>1.043792560090605</v>
       </c>
       <c r="D5">
-        <v>1.041637049200096</v>
+        <v>1.043708585062884</v>
       </c>
       <c r="E5">
-        <v>1.007504399263242</v>
+        <v>1.041526433671858</v>
       </c>
       <c r="F5">
-        <v>0.9857155911719624</v>
+        <v>1.043766144386214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051606162750504</v>
+        <v>1.042192874002964</v>
       </c>
       <c r="J5">
-        <v>1.022854146152344</v>
+        <v>1.048190976936584</v>
       </c>
       <c r="K5">
-        <v>1.051044968143359</v>
+        <v>1.046121855806687</v>
       </c>
       <c r="L5">
-        <v>1.017290739043994</v>
+        <v>1.043945028877865</v>
       </c>
       <c r="M5">
-        <v>0.9957605142921083</v>
+        <v>1.046179275008825</v>
       </c>
       <c r="N5">
-        <v>1.024306716362891</v>
+        <v>1.049679528353019</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004434822236918</v>
+        <v>1.043873381490054</v>
       </c>
       <c r="D6">
-        <v>1.041855950637483</v>
+        <v>1.04374803648343</v>
       </c>
       <c r="E6">
-        <v>1.007877109474937</v>
+        <v>1.041597258723437</v>
       </c>
       <c r="F6">
-        <v>0.9862726792375309</v>
+        <v>1.04387597914613</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051759135912067</v>
+        <v>1.042216082860683</v>
       </c>
       <c r="J6">
-        <v>1.023197653753264</v>
+        <v>1.048255391109934</v>
       </c>
       <c r="K6">
-        <v>1.05122584257215</v>
+        <v>1.046152577365547</v>
       </c>
       <c r="L6">
-        <v>1.017621835524908</v>
+        <v>1.044007027255374</v>
       </c>
       <c r="M6">
-        <v>0.9962723981102447</v>
+        <v>1.046280209782325</v>
       </c>
       <c r="N6">
-        <v>1.024650711784004</v>
+        <v>1.049744034001884</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001457645930569</v>
+        <v>1.043317252225802</v>
       </c>
       <c r="D7">
-        <v>1.040341119257462</v>
+        <v>1.04347658769969</v>
       </c>
       <c r="E7">
-        <v>1.005296167716996</v>
+        <v>1.041109872388305</v>
       </c>
       <c r="F7">
-        <v>0.9824143335959015</v>
+        <v>1.043120297929094</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050698665309917</v>
+        <v>1.042056234914229</v>
       </c>
       <c r="J7">
-        <v>1.020818061263876</v>
+        <v>1.047812060133277</v>
       </c>
       <c r="K7">
-        <v>1.049973025906798</v>
+        <v>1.045941105157104</v>
       </c>
       <c r="L7">
-        <v>1.015328110042489</v>
+        <v>1.043580295730899</v>
       </c>
       <c r="M7">
-        <v>0.9927266658808148</v>
+        <v>1.045585702624684</v>
       </c>
       <c r="N7">
-        <v>1.022267740000338</v>
+        <v>1.049300073444389</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9884547936310862</v>
+        <v>1.040982942595784</v>
       </c>
       <c r="D8">
-        <v>1.033754218623427</v>
+        <v>1.042337605782759</v>
       </c>
       <c r="E8">
-        <v>0.9940250710382678</v>
+        <v>1.039063070605475</v>
       </c>
       <c r="F8">
-        <v>0.9655423621043598</v>
+        <v>1.039950544007233</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046038247013032</v>
+        <v>1.041381582227749</v>
       </c>
       <c r="J8">
-        <v>1.010403282056579</v>
+        <v>1.04594873397511</v>
       </c>
       <c r="K8">
-        <v>1.044495584086648</v>
+        <v>1.045051530267052</v>
       </c>
       <c r="L8">
-        <v>1.005286589463744</v>
+        <v>1.041786056113719</v>
       </c>
       <c r="M8">
-        <v>0.977210238667244</v>
+        <v>1.04267106766305</v>
       </c>
       <c r="N8">
-        <v>1.011838170611976</v>
+        <v>1.047434101149352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9629944099155373</v>
+        <v>1.036831136470355</v>
       </c>
       <c r="D9">
-        <v>1.021006418010142</v>
+        <v>1.040313596164816</v>
       </c>
       <c r="E9">
-        <v>0.9719704880154277</v>
+        <v>1.035418743571324</v>
       </c>
       <c r="F9">
-        <v>0.9323597091989434</v>
+        <v>1.034320619654196</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03680819661328</v>
+        <v>1.040167706572623</v>
       </c>
       <c r="J9">
-        <v>0.9899251894043639</v>
+        <v>1.042625245837122</v>
       </c>
       <c r="K9">
-        <v>1.033767632488825</v>
+        <v>1.043462166349285</v>
       </c>
       <c r="L9">
-        <v>0.9855353065901896</v>
+        <v>1.03858321864882</v>
       </c>
       <c r="M9">
-        <v>0.9466546123125236</v>
+        <v>1.03748868553639</v>
       </c>
       <c r="N9">
-        <v>0.9913309967193245</v>
+        <v>1.044105893276998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9437557449115429</v>
+        <v>1.034035902745237</v>
       </c>
       <c r="D10">
-        <v>1.011518861621502</v>
+        <v>1.038952358943317</v>
       </c>
       <c r="E10">
-        <v>0.955328399913815</v>
+        <v>1.032962592037631</v>
       </c>
       <c r="F10">
-        <v>0.9070973303179412</v>
+        <v>1.030535141297969</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029772198472187</v>
+        <v>1.039341140584799</v>
       </c>
       <c r="J10">
-        <v>0.9743933654072835</v>
+        <v>1.040381375511767</v>
       </c>
       <c r="K10">
-        <v>1.025683208052961</v>
+        <v>1.042387442145294</v>
       </c>
       <c r="L10">
-        <v>0.9705539394912522</v>
+        <v>1.03641907813085</v>
       </c>
       <c r="M10">
-        <v>0.9233743079514589</v>
+        <v>1.034000379474159</v>
       </c>
       <c r="N10">
-        <v>0.975777115750643</v>
+        <v>1.041858836398406</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9347170459076943</v>
+        <v>1.032818706235944</v>
       </c>
       <c r="D11">
-        <v>1.007107950025458</v>
+        <v>1.03835999680404</v>
       </c>
       <c r="E11">
-        <v>0.9475189277025871</v>
+        <v>1.031892445227474</v>
       </c>
       <c r="F11">
-        <v>0.895155141594193</v>
+        <v>1.028887826231901</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026454973876815</v>
+        <v>1.038979014626786</v>
       </c>
       <c r="J11">
-        <v>0.9670825680415109</v>
+        <v>1.039402777326903</v>
       </c>
       <c r="K11">
-        <v>1.021897054275846</v>
+        <v>1.041918373450965</v>
       </c>
       <c r="L11">
-        <v>0.9635034040537711</v>
+        <v>1.035474843265292</v>
       </c>
       <c r="M11">
-        <v>0.9123678851928262</v>
+        <v>1.032481497610621</v>
       </c>
       <c r="N11">
-        <v>0.968455936214051</v>
+        <v>1.040878848491872</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9312335146926725</v>
+        <v>1.032365527868643</v>
       </c>
       <c r="D12">
-        <v>1.005416238940581</v>
+        <v>1.038139516216319</v>
       </c>
       <c r="E12">
-        <v>0.9445109603338619</v>
+        <v>1.031493925124522</v>
       </c>
       <c r="F12">
-        <v>0.8905381788172808</v>
+        <v>1.028274665902957</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025175096101791</v>
+        <v>1.038843861969545</v>
       </c>
       <c r="J12">
-        <v>0.9642629275323918</v>
+        <v>1.039038207706704</v>
       </c>
       <c r="K12">
-        <v>1.020440402848262</v>
+        <v>1.041743574183637</v>
       </c>
       <c r="L12">
-        <v>0.9607844778140739</v>
+        <v>1.035123014202711</v>
       </c>
       <c r="M12">
-        <v>0.9081128878670455</v>
+        <v>1.03191600951936</v>
       </c>
       <c r="N12">
-        <v>0.9656322914919917</v>
+        <v>1.040513761140995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9319868331958741</v>
+        <v>1.032462784494186</v>
       </c>
       <c r="D13">
-        <v>1.005781678810185</v>
+        <v>1.038186830611666</v>
       </c>
       <c r="E13">
-        <v>0.9451613479077146</v>
+        <v>1.031579455612091</v>
       </c>
       <c r="F13">
-        <v>0.8915373182117473</v>
+        <v>1.028406249272662</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025451929149408</v>
+        <v>1.038872881919837</v>
       </c>
       <c r="J13">
-        <v>0.9648727708882083</v>
+        <v>1.039116458163361</v>
       </c>
       <c r="K13">
-        <v>1.020755278260144</v>
+        <v>1.041781094998776</v>
       </c>
       <c r="L13">
-        <v>0.9613725200330374</v>
+        <v>1.035198532821179</v>
       </c>
       <c r="M13">
-        <v>0.9090336799017189</v>
+        <v>1.032037368500472</v>
       </c>
       <c r="N13">
-        <v>0.966243000895323</v>
+        <v>1.040592122722277</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9344318044785934</v>
+        <v>1.032781268113414</v>
       </c>
       <c r="D14">
-        <v>1.006969253199621</v>
+        <v>1.038341781064582</v>
       </c>
       <c r="E14">
-        <v>0.9472725874116179</v>
+        <v>1.031859524388496</v>
       </c>
       <c r="F14">
-        <v>0.8947774053353288</v>
+        <v>1.02883716846661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02635020024007</v>
+        <v>1.038967856036604</v>
       </c>
       <c r="J14">
-        <v>0.9668517291224792</v>
+        <v>1.03937266395704</v>
       </c>
       <c r="K14">
-        <v>1.021777723667729</v>
+        <v>1.041903936096198</v>
       </c>
       <c r="L14">
-        <v>0.9632808025622189</v>
+        <v>1.03544578351017</v>
       </c>
       <c r="M14">
-        <v>0.9120197567256858</v>
+        <v>1.032434781113868</v>
       </c>
       <c r="N14">
-        <v>0.9682247694772764</v>
+        <v>1.040848692357569</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9359208273598227</v>
+        <v>1.03297735537809</v>
       </c>
       <c r="D15">
-        <v>1.007693622479485</v>
+        <v>1.038437191111821</v>
       </c>
       <c r="E15">
-        <v>0.9485586138443647</v>
+        <v>1.032031948075304</v>
       </c>
       <c r="F15">
-        <v>0.8967486672387858</v>
+        <v>1.029102501789412</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026897086716175</v>
+        <v>1.039026287244967</v>
       </c>
       <c r="J15">
-        <v>0.9680566764434877</v>
+        <v>1.039530377644849</v>
       </c>
       <c r="K15">
-        <v>1.022400762712462</v>
+        <v>1.041979547227781</v>
       </c>
       <c r="L15">
-        <v>0.9644427662742349</v>
+        <v>1.035597976564295</v>
       </c>
       <c r="M15">
-        <v>0.9138365169544811</v>
+        <v>1.032679465572777</v>
       </c>
       <c r="N15">
-        <v>0.9694314279616905</v>
+        <v>1.041006630016905</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9443391291328279</v>
+        <v>1.03411653741385</v>
       </c>
       <c r="D16">
-        <v>1.011804601290058</v>
+        <v>1.038991609364149</v>
       </c>
       <c r="E16">
-        <v>0.9558326681695519</v>
+        <v>1.033033472551997</v>
       </c>
       <c r="F16">
-        <v>0.9078663618558206</v>
+        <v>1.030644292005632</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02998609183926</v>
+        <v>1.039365084042868</v>
       </c>
       <c r="J16">
-        <v>0.9748649486861575</v>
+        <v>1.040446172516615</v>
       </c>
       <c r="K16">
-        <v>1.025927879980947</v>
+        <v>1.042418493802808</v>
       </c>
       <c r="L16">
-        <v>0.9710087704893956</v>
+        <v>1.03648159122738</v>
       </c>
       <c r="M16">
-        <v>0.9240830832066942</v>
+        <v>1.034101001611541</v>
       </c>
       <c r="N16">
-        <v>0.9762493687318644</v>
+        <v>1.041923725422433</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9494177817343381</v>
+        <v>1.034829263791715</v>
       </c>
       <c r="D17">
-        <v>1.014297371291206</v>
+        <v>1.039338588132637</v>
       </c>
       <c r="E17">
-        <v>0.9602236436060495</v>
+        <v>1.033659912758833</v>
       </c>
       <c r="F17">
-        <v>0.9145527657498846</v>
+        <v>1.03160919491071</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031846894002304</v>
+        <v>1.039576466661673</v>
       </c>
       <c r="J17">
-        <v>0.9789688125654147</v>
+        <v>1.041018738248279</v>
       </c>
       <c r="K17">
-        <v>1.028059275267384</v>
+        <v>1.042692834546846</v>
       </c>
       <c r="L17">
-        <v>0.9749669929855312</v>
+        <v>1.037033928661702</v>
       </c>
       <c r="M17">
-        <v>0.9302454818503434</v>
+        <v>1.034990409025478</v>
       </c>
       <c r="N17">
-        <v>0.9803590605685499</v>
+        <v>1.04249710426311</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9523133178901466</v>
+        <v>1.035244326904399</v>
       </c>
       <c r="D18">
-        <v>1.015722774957858</v>
+        <v>1.03954069221572</v>
       </c>
       <c r="E18">
-        <v>0.9627279318968265</v>
+        <v>1.034024668053535</v>
       </c>
       <c r="F18">
-        <v>0.9183584583239442</v>
+        <v>1.03217122050872</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032906723752854</v>
+        <v>1.039699356284876</v>
       </c>
       <c r="J18">
-        <v>0.9813073320053137</v>
+        <v>1.041352033659288</v>
       </c>
       <c r="K18">
-        <v>1.029275521679792</v>
+        <v>1.04285249593366</v>
       </c>
       <c r="L18">
-        <v>0.9772226156002096</v>
+        <v>1.037355409752084</v>
       </c>
       <c r="M18">
-        <v>0.9337527881815918</v>
+        <v>1.03550837558872</v>
       </c>
       <c r="N18">
-        <v>0.9827009009742856</v>
+        <v>1.042830872991832</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9532898122854245</v>
+        <v>1.035385741954941</v>
       </c>
       <c r="D19">
-        <v>1.016204156240538</v>
+        <v>1.039609556811292</v>
       </c>
       <c r="E19">
-        <v>0.9635726104240242</v>
+        <v>1.034148932965505</v>
       </c>
       <c r="F19">
-        <v>0.9196408773483017</v>
+        <v>1.032362724770513</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033263949523207</v>
+        <v>1.039741189837969</v>
       </c>
       <c r="J19">
-        <v>0.9820957646369066</v>
+        <v>1.041465565461628</v>
       </c>
       <c r="K19">
-        <v>1.02968585057028</v>
+        <v>1.042906876083546</v>
       </c>
       <c r="L19">
-        <v>0.97798311165014</v>
+        <v>1.037464910531111</v>
       </c>
       <c r="M19">
-        <v>0.9349346263466491</v>
+        <v>1.035684852728422</v>
       </c>
       <c r="N19">
-        <v>0.9834904532706495</v>
+        <v>1.042944566022353</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9488799206968872</v>
+        <v>1.034752863281512</v>
       </c>
       <c r="D20">
-        <v>1.014032927335871</v>
+        <v>1.039301389911004</v>
       </c>
       <c r="E20">
-        <v>0.9597585233505745</v>
+        <v>1.033592767693539</v>
       </c>
       <c r="F20">
-        <v>0.9138453307529935</v>
+        <v>1.031505751581566</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03164993461828</v>
+        <v>1.039553829397945</v>
       </c>
       <c r="J20">
-        <v>0.9785343182994785</v>
+        <v>1.040957377102073</v>
       </c>
       <c r="K20">
-        <v>1.027833432476428</v>
+        <v>1.042663437368242</v>
       </c>
       <c r="L20">
-        <v>0.9745479075847109</v>
+        <v>1.036974739419278</v>
       </c>
       <c r="M20">
-        <v>0.9295934999423562</v>
+        <v>1.034895068086417</v>
       </c>
       <c r="N20">
-        <v>0.979923949270919</v>
+        <v>1.042435655977038</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.933715491350549</v>
+        <v>1.032687512053766</v>
       </c>
       <c r="D21">
-        <v>1.006621087508547</v>
+        <v>1.038296164543663</v>
       </c>
       <c r="E21">
-        <v>0.9466539955317801</v>
+        <v>1.031777079478734</v>
       </c>
       <c r="F21">
-        <v>0.8938285702282831</v>
+        <v>1.028710309047026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026087065830793</v>
+        <v>1.038939906350789</v>
       </c>
       <c r="J21">
-        <v>0.9662720016622102</v>
+        <v>1.039297247604974</v>
       </c>
       <c r="K21">
-        <v>1.021478097791611</v>
+        <v>1.041867778163546</v>
       </c>
       <c r="L21">
-        <v>0.9627217685389354</v>
+        <v>1.03537300485762</v>
       </c>
       <c r="M21">
-        <v>0.9111452978882646</v>
+        <v>1.032317789448394</v>
       </c>
       <c r="N21">
-        <v>0.9676442187375183</v>
+        <v>1.040773168905633</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9234366152098558</v>
+        <v>1.031382811084822</v>
       </c>
       <c r="D22">
-        <v>1.001646881413256</v>
+        <v>1.037661525718347</v>
       </c>
       <c r="E22">
-        <v>0.9377824254094602</v>
+        <v>1.030629570145508</v>
       </c>
       <c r="F22">
-        <v>0.8801727244094661</v>
+        <v>1.026945308321942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022308247154406</v>
+        <v>1.038550183894283</v>
       </c>
       <c r="J22">
-        <v>0.9579481409935192</v>
+        <v>1.038247227887235</v>
       </c>
       <c r="K22">
-        <v>1.017185783707171</v>
+        <v>1.041364234559528</v>
       </c>
       <c r="L22">
-        <v>0.9546961036941151</v>
+        <v>1.034359564626221</v>
       </c>
       <c r="M22">
-        <v>0.8985609655193256</v>
+        <v>1.030689764380935</v>
       </c>
       <c r="N22">
-        <v>0.9593085372319176</v>
+        <v>1.039721658039457</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9289644361283779</v>
+        <v>1.03207504903004</v>
       </c>
       <c r="D23">
-        <v>1.004316819650731</v>
+        <v>1.037998210771936</v>
       </c>
       <c r="E23">
-        <v>0.9425522260560761</v>
+        <v>1.031238455867466</v>
       </c>
       <c r="F23">
-        <v>0.8875262190054407</v>
+        <v>1.027881684968844</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024341066000763</v>
+        <v>1.038757139356862</v>
       </c>
       <c r="J23">
-        <v>0.9624257112634688</v>
+        <v>1.03880446219565</v>
       </c>
       <c r="K23">
-        <v>1.019492400716112</v>
+        <v>1.041631486771321</v>
       </c>
       <c r="L23">
-        <v>0.9590130045002819</v>
+        <v>1.034897420130655</v>
       </c>
       <c r="M23">
-        <v>0.9053371742861209</v>
+        <v>1.031553544837553</v>
       </c>
       <c r="N23">
-        <v>0.9637924661652352</v>
+        <v>1.040279683684505</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9491231618134349</v>
+        <v>1.034787387416011</v>
       </c>
       <c r="D24">
-        <v>1.014152505952165</v>
+        <v>1.039318199059763</v>
       </c>
       <c r="E24">
-        <v>0.9599688657930108</v>
+        <v>1.033623109624763</v>
       </c>
       <c r="F24">
-        <v>0.9141652796291709</v>
+        <v>1.03155249559602</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031739010515188</v>
+        <v>1.039564059458129</v>
       </c>
       <c r="J24">
-        <v>0.978730816956464</v>
+        <v>1.040985105639894</v>
       </c>
       <c r="K24">
-        <v>1.027935563891655</v>
+        <v>1.042676721790543</v>
       </c>
       <c r="L24">
-        <v>0.9747374373473389</v>
+        <v>1.037001486615172</v>
       </c>
       <c r="M24">
-        <v>0.929888369724283</v>
+        <v>1.034938151053211</v>
       </c>
       <c r="N24">
-        <v>0.9801207269785361</v>
+        <v>1.042463423892563</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9699281727928254</v>
+        <v>1.037909188752957</v>
       </c>
       <c r="D25">
-        <v>1.02445729525851</v>
+        <v>1.040838912248529</v>
       </c>
       <c r="E25">
-        <v>0.9779739214174439</v>
+        <v>1.036365479931365</v>
       </c>
       <c r="F25">
-        <v>0.9414205670157747</v>
+        <v>1.035781591283816</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039332883848034</v>
+        <v>1.040484539377347</v>
       </c>
       <c r="J25">
-        <v>0.9955117569377735</v>
+        <v>1.043489325231669</v>
       </c>
       <c r="K25">
-        <v>1.036687446490219</v>
+        <v>1.043875689414276</v>
       </c>
       <c r="L25">
-        <v>0.9909240664377098</v>
+        <v>1.039416233132108</v>
       </c>
       <c r="M25">
-        <v>0.9550018424230824</v>
+        <v>1.038834178421909</v>
       </c>
       <c r="N25">
-        <v>0.9969254978194195</v>
+        <v>1.044971199763397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_155/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_155/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040379440627602</v>
+        <v>0.9849509764041351</v>
       </c>
       <c r="D2">
-        <v>1.042043250366263</v>
+        <v>1.031987749646594</v>
       </c>
       <c r="E2">
-        <v>1.038533635975398</v>
+        <v>0.990988506465856</v>
       </c>
       <c r="F2">
-        <v>1.039131590117458</v>
+        <v>0.9609888362863649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041206215823784</v>
+        <v>1.044775346039025</v>
       </c>
       <c r="J2">
-        <v>1.045466364141586</v>
+        <v>1.007591310833518</v>
       </c>
       <c r="K2">
-        <v>1.04482105367315</v>
+        <v>1.043018730420691</v>
       </c>
       <c r="L2">
-        <v>1.04132139708542</v>
+        <v>1.002574829937431</v>
       </c>
       <c r="M2">
-        <v>1.041917649495794</v>
+        <v>0.9730198094900859</v>
       </c>
       <c r="N2">
-        <v>1.046951046295335</v>
+        <v>1.00902220606724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042162155873063</v>
+        <v>0.9951288412241125</v>
       </c>
       <c r="D3">
-        <v>1.042912896762855</v>
+        <v>1.037129061578429</v>
       </c>
       <c r="E3">
-        <v>1.040097250559813</v>
+        <v>0.999809909991025</v>
       </c>
       <c r="F3">
-        <v>1.041551369601292</v>
+        <v>0.9742070083600443</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041723130406639</v>
+        <v>1.048435840451144</v>
       </c>
       <c r="J3">
-        <v>1.046890516222773</v>
+        <v>1.015753185568975</v>
       </c>
       <c r="K3">
-        <v>1.045501296729258</v>
+        <v>1.047307927148771</v>
       </c>
       <c r="L3">
-        <v>1.042693055424887</v>
+        <v>1.010445223632205</v>
       </c>
       <c r="M3">
-        <v>1.044143344862835</v>
+        <v>0.9851809113120636</v>
       </c>
       <c r="N3">
-        <v>1.04837722083583</v>
+        <v>1.017195671601002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043310810598504</v>
+        <v>1.00142290069619</v>
       </c>
       <c r="D4">
-        <v>1.043473443725672</v>
+        <v>1.040323454594669</v>
       </c>
       <c r="E4">
-        <v>1.041104226440361</v>
+        <v>1.005266047011224</v>
       </c>
       <c r="F4">
-        <v>1.043111546096081</v>
+        <v>0.9823692959594471</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042054381371893</v>
+        <v>1.050686273340394</v>
       </c>
       <c r="J4">
-        <v>1.047806923689169</v>
+        <v>1.020790278430352</v>
       </c>
       <c r="K4">
-        <v>1.045938654614618</v>
+        <v>1.049958401040291</v>
       </c>
       <c r="L4">
-        <v>1.043575351235984</v>
+        <v>1.015301328279341</v>
       </c>
       <c r="M4">
-        <v>1.045577658461863</v>
+        <v>0.9926852709804638</v>
       </c>
       <c r="N4">
-        <v>1.049294929705942</v>
+        <v>1.022239917712005</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043792560090605</v>
+        <v>1.00400489462443</v>
       </c>
       <c r="D5">
-        <v>1.043708585062884</v>
+        <v>1.041637049200096</v>
       </c>
       <c r="E5">
-        <v>1.041526433671858</v>
+        <v>1.007504399263242</v>
       </c>
       <c r="F5">
-        <v>1.043766144386214</v>
+        <v>0.9857155911719622</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042192874002964</v>
+        <v>1.051606162750504</v>
       </c>
       <c r="J5">
-        <v>1.048190976936584</v>
+        <v>1.022854146152344</v>
       </c>
       <c r="K5">
-        <v>1.046121855806687</v>
+        <v>1.051044968143359</v>
       </c>
       <c r="L5">
-        <v>1.043945028877865</v>
+        <v>1.017290739043994</v>
       </c>
       <c r="M5">
-        <v>1.046179275008825</v>
+        <v>0.9957605142921081</v>
       </c>
       <c r="N5">
-        <v>1.049679528353019</v>
+        <v>1.024306716362891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043873381490054</v>
+        <v>1.004434822236918</v>
       </c>
       <c r="D6">
-        <v>1.04374803648343</v>
+        <v>1.041855950637483</v>
       </c>
       <c r="E6">
-        <v>1.041597258723437</v>
+        <v>1.007877109474937</v>
       </c>
       <c r="F6">
-        <v>1.04387597914613</v>
+        <v>0.9862726792375306</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042216082860683</v>
+        <v>1.051759135912067</v>
       </c>
       <c r="J6">
-        <v>1.048255391109934</v>
+        <v>1.023197653753264</v>
       </c>
       <c r="K6">
-        <v>1.046152577365547</v>
+        <v>1.05122584257215</v>
       </c>
       <c r="L6">
-        <v>1.044007027255374</v>
+        <v>1.017621835524908</v>
       </c>
       <c r="M6">
-        <v>1.046280209782325</v>
+        <v>0.996272398110244</v>
       </c>
       <c r="N6">
-        <v>1.049744034001884</v>
+        <v>1.024650711784005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043317252225802</v>
+        <v>1.001457645930569</v>
       </c>
       <c r="D7">
-        <v>1.04347658769969</v>
+        <v>1.040341119257462</v>
       </c>
       <c r="E7">
-        <v>1.041109872388305</v>
+        <v>1.005296167716996</v>
       </c>
       <c r="F7">
-        <v>1.043120297929094</v>
+        <v>0.9824143335959017</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042056234914229</v>
+        <v>1.050698665309917</v>
       </c>
       <c r="J7">
-        <v>1.047812060133277</v>
+        <v>1.020818061263876</v>
       </c>
       <c r="K7">
-        <v>1.045941105157104</v>
+        <v>1.049973025906798</v>
       </c>
       <c r="L7">
-        <v>1.043580295730899</v>
+        <v>1.015328110042488</v>
       </c>
       <c r="M7">
-        <v>1.045585702624684</v>
+        <v>0.9927266658808149</v>
       </c>
       <c r="N7">
-        <v>1.049300073444389</v>
+        <v>1.022267740000338</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040982942595784</v>
+        <v>0.988454793631086</v>
       </c>
       <c r="D8">
-        <v>1.042337605782759</v>
+        <v>1.033754218623427</v>
       </c>
       <c r="E8">
-        <v>1.039063070605475</v>
+        <v>0.994025071038267</v>
       </c>
       <c r="F8">
-        <v>1.039950544007233</v>
+        <v>0.9655423621043595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041381582227749</v>
+        <v>1.046038247013032</v>
       </c>
       <c r="J8">
-        <v>1.04594873397511</v>
+        <v>1.010403282056579</v>
       </c>
       <c r="K8">
-        <v>1.045051530267052</v>
+        <v>1.044495584086649</v>
       </c>
       <c r="L8">
-        <v>1.041786056113719</v>
+        <v>1.005286589463743</v>
       </c>
       <c r="M8">
-        <v>1.04267106766305</v>
+        <v>0.9772102386672439</v>
       </c>
       <c r="N8">
-        <v>1.047434101149352</v>
+        <v>1.011838170611976</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036831136470355</v>
+        <v>0.9629944099155371</v>
       </c>
       <c r="D9">
-        <v>1.040313596164816</v>
+        <v>1.021006418010142</v>
       </c>
       <c r="E9">
-        <v>1.035418743571324</v>
+        <v>0.9719704880154274</v>
       </c>
       <c r="F9">
-        <v>1.034320619654196</v>
+        <v>0.9323597091989433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040167706572623</v>
+        <v>1.03680819661328</v>
       </c>
       <c r="J9">
-        <v>1.042625245837122</v>
+        <v>0.989925189404364</v>
       </c>
       <c r="K9">
-        <v>1.043462166349285</v>
+        <v>1.033767632488825</v>
       </c>
       <c r="L9">
-        <v>1.03858321864882</v>
+        <v>0.9855353065901894</v>
       </c>
       <c r="M9">
-        <v>1.03748868553639</v>
+        <v>0.9466546123125233</v>
       </c>
       <c r="N9">
-        <v>1.044105893276998</v>
+        <v>0.9913309967193245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034035902745237</v>
+        <v>0.9437557449115433</v>
       </c>
       <c r="D10">
-        <v>1.038952358943317</v>
+        <v>1.011518861621502</v>
       </c>
       <c r="E10">
-        <v>1.032962592037631</v>
+        <v>0.9553283999138157</v>
       </c>
       <c r="F10">
-        <v>1.030535141297969</v>
+        <v>0.9070973303179425</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039341140584799</v>
+        <v>1.029772198472187</v>
       </c>
       <c r="J10">
-        <v>1.040381375511767</v>
+        <v>0.9743933654072841</v>
       </c>
       <c r="K10">
-        <v>1.042387442145294</v>
+        <v>1.025683208052961</v>
       </c>
       <c r="L10">
-        <v>1.03641907813085</v>
+        <v>0.9705539394912529</v>
       </c>
       <c r="M10">
-        <v>1.034000379474159</v>
+        <v>0.9233743079514601</v>
       </c>
       <c r="N10">
-        <v>1.041858836398406</v>
+        <v>0.9757771157506435</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032818706235944</v>
+        <v>0.9347170459076933</v>
       </c>
       <c r="D11">
-        <v>1.03835999680404</v>
+        <v>1.007107950025457</v>
       </c>
       <c r="E11">
-        <v>1.031892445227474</v>
+        <v>0.9475189277025858</v>
       </c>
       <c r="F11">
-        <v>1.028887826231901</v>
+        <v>0.8951551415941917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038979014626786</v>
+        <v>1.026454973876814</v>
       </c>
       <c r="J11">
-        <v>1.039402777326903</v>
+        <v>0.9670825680415099</v>
       </c>
       <c r="K11">
-        <v>1.041918373450965</v>
+        <v>1.021897054275845</v>
       </c>
       <c r="L11">
-        <v>1.035474843265292</v>
+        <v>0.9635034040537702</v>
       </c>
       <c r="M11">
-        <v>1.032481497610621</v>
+        <v>0.912367885192825</v>
       </c>
       <c r="N11">
-        <v>1.040878848491872</v>
+        <v>0.9684559362140499</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032365527868643</v>
+        <v>0.9312335146926715</v>
       </c>
       <c r="D12">
-        <v>1.038139516216319</v>
+        <v>1.00541623894058</v>
       </c>
       <c r="E12">
-        <v>1.031493925124522</v>
+        <v>0.9445109603338609</v>
       </c>
       <c r="F12">
-        <v>1.028274665902957</v>
+        <v>0.8905381788172797</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038843861969545</v>
+        <v>1.02517509610179</v>
       </c>
       <c r="J12">
-        <v>1.039038207706704</v>
+        <v>0.9642629275323908</v>
       </c>
       <c r="K12">
-        <v>1.041743574183637</v>
+        <v>1.020440402848261</v>
       </c>
       <c r="L12">
-        <v>1.035123014202711</v>
+        <v>0.9607844778140729</v>
       </c>
       <c r="M12">
-        <v>1.03191600951936</v>
+        <v>0.9081128878670446</v>
       </c>
       <c r="N12">
-        <v>1.040513761140995</v>
+        <v>0.9656322914919905</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032462784494186</v>
+        <v>0.9319868331958744</v>
       </c>
       <c r="D13">
-        <v>1.038186830611666</v>
+        <v>1.005781678810185</v>
       </c>
       <c r="E13">
-        <v>1.031579455612091</v>
+        <v>0.945161347907715</v>
       </c>
       <c r="F13">
-        <v>1.028406249272662</v>
+        <v>0.8915373182117479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038872881919837</v>
+        <v>1.025451929149408</v>
       </c>
       <c r="J13">
-        <v>1.039116458163361</v>
+        <v>0.9648727708882088</v>
       </c>
       <c r="K13">
-        <v>1.041781094998776</v>
+        <v>1.020755278260144</v>
       </c>
       <c r="L13">
-        <v>1.035198532821179</v>
+        <v>0.9613725200330379</v>
       </c>
       <c r="M13">
-        <v>1.032037368500472</v>
+        <v>0.9090336799017195</v>
       </c>
       <c r="N13">
-        <v>1.040592122722277</v>
+        <v>0.9662430008953237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032781268113414</v>
+        <v>0.9344318044785906</v>
       </c>
       <c r="D14">
-        <v>1.038341781064582</v>
+        <v>1.00696925319962</v>
       </c>
       <c r="E14">
-        <v>1.031859524388496</v>
+        <v>0.947272587411615</v>
       </c>
       <c r="F14">
-        <v>1.02883716846661</v>
+        <v>0.8947774053353249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038967856036604</v>
+        <v>1.026350200240068</v>
       </c>
       <c r="J14">
-        <v>1.03937266395704</v>
+        <v>0.9668517291224763</v>
       </c>
       <c r="K14">
-        <v>1.041903936096198</v>
+        <v>1.021777723667727</v>
       </c>
       <c r="L14">
-        <v>1.03544578351017</v>
+        <v>0.963280802562216</v>
       </c>
       <c r="M14">
-        <v>1.032434781113868</v>
+        <v>0.912019756725682</v>
       </c>
       <c r="N14">
-        <v>1.040848692357569</v>
+        <v>0.9682247694772735</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03297735537809</v>
+        <v>0.9359208273598218</v>
       </c>
       <c r="D15">
-        <v>1.038437191111821</v>
+        <v>1.007693622479485</v>
       </c>
       <c r="E15">
-        <v>1.032031948075304</v>
+        <v>0.948558613844364</v>
       </c>
       <c r="F15">
-        <v>1.029102501789412</v>
+        <v>0.8967486672387842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039026287244967</v>
+        <v>1.026897086716175</v>
       </c>
       <c r="J15">
-        <v>1.039530377644849</v>
+        <v>0.9680566764434869</v>
       </c>
       <c r="K15">
-        <v>1.041979547227781</v>
+        <v>1.022400762712461</v>
       </c>
       <c r="L15">
-        <v>1.035597976564295</v>
+        <v>0.9644427662742341</v>
       </c>
       <c r="M15">
-        <v>1.032679465572777</v>
+        <v>0.91383651695448</v>
       </c>
       <c r="N15">
-        <v>1.041006630016905</v>
+        <v>0.9694314279616897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03411653741385</v>
+        <v>0.9443391291328272</v>
       </c>
       <c r="D16">
-        <v>1.038991609364149</v>
+        <v>1.011804601290057</v>
       </c>
       <c r="E16">
-        <v>1.033033472551997</v>
+        <v>0.9558326681695517</v>
       </c>
       <c r="F16">
-        <v>1.030644292005632</v>
+        <v>0.9078663618558198</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039365084042868</v>
+        <v>1.029986091839259</v>
       </c>
       <c r="J16">
-        <v>1.040446172516615</v>
+        <v>0.9748649486861568</v>
       </c>
       <c r="K16">
-        <v>1.042418493802808</v>
+        <v>1.025927879980946</v>
       </c>
       <c r="L16">
-        <v>1.03648159122738</v>
+        <v>0.9710087704893953</v>
       </c>
       <c r="M16">
-        <v>1.034101001611541</v>
+        <v>0.9240830832066934</v>
       </c>
       <c r="N16">
-        <v>1.041923725422433</v>
+        <v>0.9762493687318639</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034829263791715</v>
+        <v>0.9494177817343373</v>
       </c>
       <c r="D17">
-        <v>1.039338588132637</v>
+        <v>1.014297371291206</v>
       </c>
       <c r="E17">
-        <v>1.033659912758833</v>
+        <v>0.9602236436060486</v>
       </c>
       <c r="F17">
-        <v>1.03160919491071</v>
+        <v>0.9145527657498835</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039576466661673</v>
+        <v>1.031846894002303</v>
       </c>
       <c r="J17">
-        <v>1.041018738248279</v>
+        <v>0.9789688125654141</v>
       </c>
       <c r="K17">
-        <v>1.042692834546846</v>
+        <v>1.028059275267383</v>
       </c>
       <c r="L17">
-        <v>1.037033928661702</v>
+        <v>0.9749669929855304</v>
       </c>
       <c r="M17">
-        <v>1.034990409025478</v>
+        <v>0.9302454818503424</v>
       </c>
       <c r="N17">
-        <v>1.04249710426311</v>
+        <v>0.9803590605685489</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035244326904399</v>
+        <v>0.9523133178901448</v>
       </c>
       <c r="D18">
-        <v>1.03954069221572</v>
+        <v>1.015722774957857</v>
       </c>
       <c r="E18">
-        <v>1.034024668053535</v>
+        <v>0.9627279318968249</v>
       </c>
       <c r="F18">
-        <v>1.03217122050872</v>
+        <v>0.9183584583239431</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039699356284876</v>
+        <v>1.032906723752853</v>
       </c>
       <c r="J18">
-        <v>1.041352033659288</v>
+        <v>0.9813073320053122</v>
       </c>
       <c r="K18">
-        <v>1.04285249593366</v>
+        <v>1.02927552167979</v>
       </c>
       <c r="L18">
-        <v>1.037355409752084</v>
+        <v>0.9772226156002083</v>
       </c>
       <c r="M18">
-        <v>1.03550837558872</v>
+        <v>0.9337527881815907</v>
       </c>
       <c r="N18">
-        <v>1.042830872991832</v>
+        <v>0.982700900974284</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035385741954941</v>
+        <v>0.9532898122854235</v>
       </c>
       <c r="D19">
-        <v>1.039609556811292</v>
+        <v>1.016204156240539</v>
       </c>
       <c r="E19">
-        <v>1.034148932965505</v>
+        <v>0.9635726104240234</v>
       </c>
       <c r="F19">
-        <v>1.032362724770513</v>
+        <v>0.9196408773483018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039741189837969</v>
+        <v>1.033263949523207</v>
       </c>
       <c r="J19">
-        <v>1.041465565461628</v>
+        <v>0.9820957646369061</v>
       </c>
       <c r="K19">
-        <v>1.042906876083546</v>
+        <v>1.02968585057028</v>
       </c>
       <c r="L19">
-        <v>1.037464910531111</v>
+        <v>0.9779831116501393</v>
       </c>
       <c r="M19">
-        <v>1.035684852728422</v>
+        <v>0.9349346263466491</v>
       </c>
       <c r="N19">
-        <v>1.042944566022353</v>
+        <v>0.9834904532706493</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034752863281512</v>
+        <v>0.948879920696887</v>
       </c>
       <c r="D20">
-        <v>1.039301389911004</v>
+        <v>1.01403292733587</v>
       </c>
       <c r="E20">
-        <v>1.033592767693539</v>
+        <v>0.9597585233505745</v>
       </c>
       <c r="F20">
-        <v>1.031505751581566</v>
+        <v>0.9138453307529933</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039553829397945</v>
+        <v>1.03164993461828</v>
       </c>
       <c r="J20">
-        <v>1.040957377102073</v>
+        <v>0.9785343182994782</v>
       </c>
       <c r="K20">
-        <v>1.042663437368242</v>
+        <v>1.027833432476428</v>
       </c>
       <c r="L20">
-        <v>1.036974739419278</v>
+        <v>0.9745479075847105</v>
       </c>
       <c r="M20">
-        <v>1.034895068086417</v>
+        <v>0.9295934999423558</v>
       </c>
       <c r="N20">
-        <v>1.042435655977038</v>
+        <v>0.9799239492709189</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032687512053766</v>
+        <v>0.9337154913505478</v>
       </c>
       <c r="D21">
-        <v>1.038296164543663</v>
+        <v>1.006621087508546</v>
       </c>
       <c r="E21">
-        <v>1.031777079478734</v>
+        <v>0.9466539955317789</v>
       </c>
       <c r="F21">
-        <v>1.028710309047026</v>
+        <v>0.893828570228282</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038939906350789</v>
+        <v>1.026087065830793</v>
       </c>
       <c r="J21">
-        <v>1.039297247604974</v>
+        <v>0.9662720016622091</v>
       </c>
       <c r="K21">
-        <v>1.041867778163546</v>
+        <v>1.021478097791611</v>
       </c>
       <c r="L21">
-        <v>1.03537300485762</v>
+        <v>0.9627217685389343</v>
       </c>
       <c r="M21">
-        <v>1.032317789448394</v>
+        <v>0.9111452978882634</v>
       </c>
       <c r="N21">
-        <v>1.040773168905633</v>
+        <v>0.967644218737517</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>1.031382811084822</v>
+        <v>0.9234366152098559</v>
       </c>
       <c r="D22">
-        <v>1.037661525718347</v>
+        <v>1.001646881413256</v>
       </c>
       <c r="E22">
-        <v>1.030629570145508</v>
+        <v>0.9377824254094601</v>
       </c>
       <c r="F22">
-        <v>1.026945308321942</v>
+        <v>0.8801727244094667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038550183894283</v>
+        <v>1.022308247154405</v>
       </c>
       <c r="J22">
-        <v>1.038247227887235</v>
+        <v>0.9579481409935193</v>
       </c>
       <c r="K22">
-        <v>1.041364234559528</v>
+        <v>1.017185783707171</v>
       </c>
       <c r="L22">
-        <v>1.034359564626221</v>
+        <v>0.9546961036941152</v>
       </c>
       <c r="M22">
-        <v>1.030689764380935</v>
+        <v>0.8985609655193262</v>
       </c>
       <c r="N22">
-        <v>1.039721658039457</v>
+        <v>0.9593085372319176</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03207504903004</v>
+        <v>0.9289644361283784</v>
       </c>
       <c r="D23">
-        <v>1.037998210771936</v>
+        <v>1.004316819650733</v>
       </c>
       <c r="E23">
-        <v>1.031238455867466</v>
+        <v>0.9425522260560769</v>
       </c>
       <c r="F23">
-        <v>1.027881684968844</v>
+        <v>0.8875262190054417</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038757139356862</v>
+        <v>1.024341066000763</v>
       </c>
       <c r="J23">
-        <v>1.03880446219565</v>
+        <v>0.9624257112634695</v>
       </c>
       <c r="K23">
-        <v>1.041631486771321</v>
+        <v>1.019492400716113</v>
       </c>
       <c r="L23">
-        <v>1.034897420130655</v>
+        <v>0.9590130045002828</v>
       </c>
       <c r="M23">
-        <v>1.031553544837553</v>
+        <v>0.9053371742861221</v>
       </c>
       <c r="N23">
-        <v>1.040279683684505</v>
+        <v>0.963792466165236</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034787387416011</v>
+        <v>0.9491231618134339</v>
       </c>
       <c r="D24">
-        <v>1.039318199059763</v>
+        <v>1.014152505952165</v>
       </c>
       <c r="E24">
-        <v>1.033623109624763</v>
+        <v>0.9599688657930099</v>
       </c>
       <c r="F24">
-        <v>1.03155249559602</v>
+        <v>0.9141652796291695</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039564059458129</v>
+        <v>1.031739010515188</v>
       </c>
       <c r="J24">
-        <v>1.040985105639894</v>
+        <v>0.9787308169564629</v>
       </c>
       <c r="K24">
-        <v>1.042676721790543</v>
+        <v>1.027935563891655</v>
       </c>
       <c r="L24">
-        <v>1.037001486615172</v>
+        <v>0.9747374373473379</v>
       </c>
       <c r="M24">
-        <v>1.034938151053211</v>
+        <v>0.9298883697242817</v>
       </c>
       <c r="N24">
-        <v>1.042463423892563</v>
+        <v>0.9801207269785351</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037909188752957</v>
+        <v>0.9699281727928244</v>
       </c>
       <c r="D25">
-        <v>1.040838912248529</v>
+        <v>1.024457295258509</v>
       </c>
       <c r="E25">
-        <v>1.036365479931365</v>
+        <v>0.9779739214174429</v>
       </c>
       <c r="F25">
-        <v>1.035781591283816</v>
+        <v>0.9414205670157727</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040484539377347</v>
+        <v>1.039332883848034</v>
       </c>
       <c r="J25">
-        <v>1.043489325231669</v>
+        <v>0.9955117569377725</v>
       </c>
       <c r="K25">
-        <v>1.043875689414276</v>
+        <v>1.036687446490219</v>
       </c>
       <c r="L25">
-        <v>1.039416233132108</v>
+        <v>0.9909240664377086</v>
       </c>
       <c r="M25">
-        <v>1.038834178421909</v>
+        <v>0.9550018424230806</v>
       </c>
       <c r="N25">
-        <v>1.044971199763397</v>
+        <v>0.9969254978194185</v>
       </c>
     </row>
   </sheetData>
